--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Procedure Timing Context Code System</t>
+    <t>Procedure Timing Context CodeSystem</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,14 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Codes defining the timing phase of a procedure relative to the encounter start (e.g., acute vs. post-acute).</t>
+    <t>Local CodeSystem for classifying a procedure into a **timing context** relative to encounter start.
+**Primary use-case**
+- Normalize reporting into acute (&lt;24h) vs post-acute (&gt;=24h) phases for stroke process measures.
+**Why this is useful**
+- It supports consistent reporting even when onset time is uncertain.
+- It is designed for encounter-based operational KPIs rather than physiologic onset-based timelines.
+**FHIR placement**
+- Used in `ProcedureTimingContextExtension` attached to Procedure.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,9 +87,6 @@
     <t>Local CodeSystem for classifying a procedure into a **timing context** relative to encounter start.
 **Primary use-case**
 - Normalize reporting into acute (&lt;24h) vs post-acute (&gt;=24h) phases for stroke process measures.
-**Why this is useful**
-- It supports consistent reporting even when onset time is uncertain.
-- It is designed for encounter-based operational KPIs rather than physiologic onset-based timelines.
 **FHIR placement**
 - Used in `ProcedureTimingContextExtension` attached to Procedure.</t>
   </si>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-procedure-timing-context-cs.xlsx
+++ b/CodeSystem-procedure-timing-context-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
